--- a/Results/SummaryResults.xlsx
+++ b/Results/SummaryResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio\OneDrive - Universidad de Antioquia\Estudio\Semillero SOFA\ICI estimation Gmm\ici-estimation-gmm-main\Repo-extended\ici-estimation-gmm-extended\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F8F8D1-4460-47B1-8B93-DE419107CB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B99BAA-B8A9-476B-8910-FBBDC9F696F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-5160" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{F818324C-11BF-456C-9DC3-EC6D62359C4B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="34">
   <si>
     <t>DecisionTree</t>
   </si>
@@ -119,12 +119,36 @@
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>0km-0dBm</t>
+  </si>
+  <si>
+    <t>270km-0dBm</t>
+  </si>
+  <si>
+    <t>270km-9dBm</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MAE std</t>
+  </si>
+  <si>
+    <t>gaussianas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -349,15 +373,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,70 +446,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0D42F0-EDEE-4039-933B-9CB5837CD8FD}">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,290 +852,293 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="23">
         <v>1.8820209999999999</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
         <v>64</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="23">
         <v>2.4437229999999999</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="23">
         <v>1.229187</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
         <v>64</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="23">
         <v>2.403365</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="23">
         <v>1.4352039999999999</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
         <v>64</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="23">
         <v>2.6072090000000001</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>16</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="23">
         <v>0.81159099999999995</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>56</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="23">
         <v>0.72641900000000004</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>16</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="23">
         <v>0.82765599999999995</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>48</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="23">
         <v>0.72663699999999998</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>16</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="23">
         <v>0.81752400000000003</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>64</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="23">
         <v>0.70924299999999996</v>
       </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1084,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F022D10-A49F-4D3D-B491-2DA89F0AB688}">
   <dimension ref="B5:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,499 +1172,499 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>17</v>
+      <c r="C7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>12</v>
+      <c r="B8" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
+        <v>25</v>
+      </c>
+      <c r="D8" s="25">
         <v>2.3142179999999999</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="26">
         <v>0.13095999999999999</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="25">
         <v>2.6142889999999999</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="26">
         <v>0.32033200000000001</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="20"/>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="30">
         <v>2.0434369999999999</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="26">
         <v>9.2586000000000002E-2</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="30">
         <v>2.4131089999999999</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="26">
         <v>0.382081</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="B10" s="20"/>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="32">
         <v>2.1217039999999998</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="33">
         <v>1.7642999999999999E-2</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="32">
         <v>2.299366</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="33">
         <v>0.18238399999999999</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="28">
         <v>2.0364279999999999</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="29">
         <v>0.22693199999999999</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="28">
         <v>2.4423900000000001</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="29">
         <v>0.44456400000000001</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="B12" s="20"/>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="30">
         <v>1.576676</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="26">
         <v>0.18698200000000001</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="30">
         <v>2.1126830000000001</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="26">
         <v>0.56111699999999998</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="20"/>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="32">
         <v>1.9675320000000001</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="33">
         <v>1.6754999999999999E-2</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="F13" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="32">
         <v>2.2019069999999998</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="33">
         <v>0.239481</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="28">
         <v>2.2350050000000001</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="29">
         <v>0.242951</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="28">
         <v>2.717333</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="29">
         <v>0.52048399999999995</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="B15" s="20"/>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="30">
         <v>1.829056</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="26">
         <v>0.23943200000000001</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="30">
         <v>2.4396399999999998</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="26">
         <v>0.64364600000000005</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="B16" s="20"/>
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="32">
         <v>2.1663220000000001</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="33">
         <v>1.2323000000000001E-2</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="F16" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="32">
         <v>2.4002409999999998</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="33">
         <v>0.23879700000000001</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>17</v>
+      <c r="C22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="28">
         <v>0.75489499999999998</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="29">
         <v>2.7122E-2</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="25">
         <v>0.719615</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="26">
         <v>4.1644E-2</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="B24" s="20"/>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="30">
         <v>0.74234699999999998</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="26">
         <v>9.6340000000000002E-3</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11">
+      <c r="F24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="30">
         <v>0.73243000000000003</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="26">
         <v>1.2212000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="B25" s="20"/>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="32">
         <v>0.71582999999999997</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="33">
         <v>4.0140000000000002E-3</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="F25" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="32">
         <v>0.70710300000000004</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="33">
         <v>1.7170999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="B26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="28">
         <v>0.75411499999999998</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="29">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="28">
         <v>0.71787800000000002</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="29">
         <v>4.5959E-2</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="B27" s="20"/>
+      <c r="C27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="30">
         <v>0.74639100000000003</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="26">
         <v>1.9824000000000001E-2</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="F27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="30">
         <v>0.73349200000000003</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="26">
         <v>1.9259999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="B28" s="20"/>
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="32">
         <v>0.75404899999999997</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="33">
         <v>1.2694E-2</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="14">
+      <c r="F28" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="32">
         <v>0.72924599999999995</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="33">
         <v>2.7643000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="28">
         <v>0.77029000000000003</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="29">
         <v>2.1887E-2</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="28">
         <v>0.716248</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="29">
         <v>5.7460999999999998E-2</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="B30" s="20"/>
+      <c r="C30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="30">
         <v>0.78054400000000002</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="26">
         <v>2.4386999999999999E-2</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="F30" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="30">
         <v>0.74170999999999998</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="26">
         <v>4.3108E-2</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="14">
+      <c r="B31" s="20"/>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="32">
         <v>0.76979200000000003</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="33">
         <v>4.9439999999999996E-3</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="14">
+      <c r="F31" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="32">
         <v>0.72452799999999995</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="33">
         <v>4.7985E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C5:H5"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1599,15 +1672,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71A406B-4F7E-47FA-8B86-8F50716FA014}">
-  <dimension ref="C5:K30"/>
+  <dimension ref="C5:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1617,616 +1690,642 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="5" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+      <c r="M7" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2.3142179999999999</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0.13095999999999999</v>
+      </c>
+      <c r="G8" s="38">
         <v>0</v>
       </c>
-      <c r="E8" s="8">
-        <v>2.3142179999999999</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.13095999999999999</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="H8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="28">
+        <v>2.6142889999999999</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0.32033200000000001</v>
+      </c>
+      <c r="K8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="M8" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="30">
+        <v>2.0434369999999999</v>
+      </c>
+      <c r="F9" s="30">
+        <v>9.2586000000000002E-2</v>
+      </c>
+      <c r="G9" s="39">
+        <v>11</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="30">
+        <v>2.4131089999999999</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.382081</v>
+      </c>
+      <c r="K9" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="8">
-        <v>2.6142889999999999</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.32033200000000001</v>
-      </c>
-      <c r="K8" s="22">
+      <c r="M9" s="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="20"/>
+      <c r="D10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="32">
+        <v>2.1217039999999998</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1.7642999999999999E-2</v>
+      </c>
+      <c r="G10" s="40">
+        <v>3</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="32">
+        <v>2.299366</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0.18238399999999999</v>
+      </c>
+      <c r="K10" s="12">
+        <v>14</v>
+      </c>
+      <c r="M10" s="42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2.0364279999999999</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.22693199999999999</v>
+      </c>
+      <c r="G11" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="10" t="s">
+      <c r="H11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="28">
+        <v>2.4423900000000001</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0.44456400000000001</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1.576676</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0.18698200000000001</v>
+      </c>
+      <c r="G12" s="39">
+        <v>14</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="30">
+        <v>2.1126830000000001</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.56111699999999998</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="20"/>
+      <c r="D13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1.9675320000000001</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1.6754999999999999E-2</v>
+      </c>
+      <c r="G13" s="40">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="32">
+        <v>2.2019069999999998</v>
+      </c>
+      <c r="J13" s="32">
+        <v>0.239481</v>
+      </c>
+      <c r="K13" s="12">
+        <v>14</v>
+      </c>
+      <c r="M13" s="42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2.2350050000000001</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.242951</v>
+      </c>
+      <c r="G14" s="38">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="28">
+        <v>2.717333</v>
+      </c>
+      <c r="J14" s="28">
+        <v>0.52048399999999995</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1.829056</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0.23943200000000001</v>
+      </c>
+      <c r="G15" s="39">
+        <v>13</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="30">
+        <v>2.4396399999999998</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0.64364600000000005</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="20"/>
+      <c r="D16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="32">
+        <v>2.1663220000000001</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1.2323000000000001E-2</v>
+      </c>
+      <c r="G16" s="40">
         <v>1</v>
       </c>
-      <c r="E9" s="11">
-        <v>2.0434369999999999</v>
-      </c>
-      <c r="F9" s="11">
-        <v>9.2586000000000002E-2</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="H16" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="32">
+        <v>2.4002409999999998</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0.23879700000000001</v>
+      </c>
+      <c r="K16" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="D21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0.75489499999999998</v>
+      </c>
+      <c r="F22" s="28">
+        <v>2.7122E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0.719615</v>
+      </c>
+      <c r="J22" s="28">
+        <v>4.1644E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="20"/>
+      <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0.74234699999999998</v>
+      </c>
+      <c r="F23" s="30">
+        <v>9.6340000000000002E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="30">
+        <v>0.73243000000000003</v>
+      </c>
+      <c r="J23" s="30">
+        <v>1.2212000000000001E-2</v>
+      </c>
+      <c r="K23" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="20"/>
+      <c r="D24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0.71582999999999997</v>
+      </c>
+      <c r="F24" s="30">
+        <v>4.0140000000000002E-3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="30">
+        <v>0.70710300000000004</v>
+      </c>
+      <c r="J24" s="30">
+        <v>1.7170999999999999E-2</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0.75411499999999998</v>
+      </c>
+      <c r="F25" s="28">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="28">
+        <v>0.71787800000000002</v>
+      </c>
+      <c r="J25" s="28">
+        <v>4.5959E-2</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="20"/>
+      <c r="D26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0.74639100000000003</v>
+      </c>
+      <c r="F26" s="30">
+        <v>1.9824000000000001E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0.73349200000000003</v>
+      </c>
+      <c r="J26" s="30">
+        <v>1.9259999999999999E-2</v>
+      </c>
+      <c r="K26" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="20"/>
+      <c r="D27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.75404899999999997</v>
+      </c>
+      <c r="F27" s="32">
+        <v>1.2694E-2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>9</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0.72924599999999995</v>
+      </c>
+      <c r="J27" s="32">
+        <v>2.7643000000000001E-2</v>
+      </c>
+      <c r="K27" s="16">
         <v>1</v>
       </c>
-      <c r="I9" s="11">
-        <v>2.4131089999999999</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.382081</v>
-      </c>
-      <c r="K9" s="23">
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="30">
+        <v>0.77029000000000003</v>
+      </c>
+      <c r="F28" s="30">
+        <v>2.1887E-2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="28">
+        <v>0.716248</v>
+      </c>
+      <c r="J28" s="28">
+        <v>5.7460999999999998E-2</v>
+      </c>
+      <c r="K28" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2.1217039999999998</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1.7642999999999999E-2</v>
-      </c>
-      <c r="G10" s="27">
-        <v>3</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="14">
-        <v>2.299366</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.18238399999999999</v>
-      </c>
-      <c r="K10" s="24">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="20"/>
+      <c r="D29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="30">
+        <v>0.78054400000000002</v>
+      </c>
+      <c r="F29" s="30">
+        <v>2.4386999999999999E-2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>8</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="30">
+        <v>0.74170999999999998</v>
+      </c>
+      <c r="J29" s="30">
+        <v>4.3108E-2</v>
+      </c>
+      <c r="K29" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.0364279999999999</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.22693199999999999</v>
-      </c>
-      <c r="G11" s="31">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2.4423900000000001</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.44456400000000001</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1.576676</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.18698200000000001</v>
-      </c>
-      <c r="G12" s="32">
-        <v>14</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2.1126830000000001</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.56111699999999998</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="5"/>
-      <c r="D13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1.9675320000000001</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1.6754999999999999E-2</v>
-      </c>
-      <c r="G13" s="33">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="14">
-        <v>2.2019069999999998</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0.239481</v>
-      </c>
-      <c r="K13" s="24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2.2350050000000001</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.242951</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>2.717333</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.52048399999999995</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1.829056</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.23943200000000001</v>
-      </c>
-      <c r="G15" s="32">
-        <v>13</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
-        <v>2.4396399999999998</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.64364600000000005</v>
-      </c>
-      <c r="K15" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
-      <c r="D16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2.1663220000000001</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1.2323000000000001E-2</v>
-      </c>
-      <c r="G16" s="33">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="14">
-        <v>2.4002409999999998</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.23879700000000001</v>
-      </c>
-      <c r="K16" s="24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.75489499999999998</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2.7122E-2</v>
-      </c>
-      <c r="G22" s="8">
-        <v>10</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0.719615</v>
-      </c>
-      <c r="J22" s="8">
-        <v>4.1644E-2</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0.74234699999999998</v>
-      </c>
-      <c r="F23" s="11">
-        <v>9.6340000000000002E-3</v>
-      </c>
-      <c r="G23" s="11">
-        <v>4</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0.73243000000000003</v>
-      </c>
-      <c r="J23" s="11">
-        <v>1.2212000000000001E-2</v>
-      </c>
-      <c r="K23" s="23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0.71582999999999997</v>
-      </c>
-      <c r="F24" s="11">
-        <v>4.0140000000000002E-3</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0.70710300000000004</v>
-      </c>
-      <c r="J24" s="11">
-        <v>1.7170999999999999E-2</v>
-      </c>
-      <c r="K24" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0.75411499999999998</v>
-      </c>
-      <c r="F25" s="8">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="G25" s="9">
+    <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="20"/>
+      <c r="D30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0.76979200000000003</v>
+      </c>
+      <c r="F30" s="32">
+        <v>4.9439999999999996E-3</v>
+      </c>
+      <c r="G30" s="11">
         <v>5</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0.71787800000000002</v>
-      </c>
-      <c r="J25" s="8">
-        <v>4.5959E-2</v>
-      </c>
-      <c r="K25" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="D26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.74639100000000003</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1.9824000000000001E-2</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0.73349200000000003</v>
-      </c>
-      <c r="J26" s="11">
-        <v>1.9259999999999999E-2</v>
-      </c>
-      <c r="K26" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5"/>
-      <c r="D27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0.75404899999999997</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1.2694E-2</v>
-      </c>
-      <c r="G27" s="15">
-        <v>9</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0.72924599999999995</v>
-      </c>
-      <c r="J27" s="14">
-        <v>2.7643000000000001E-2</v>
-      </c>
-      <c r="K27" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0.77029000000000003</v>
-      </c>
-      <c r="F28" s="11">
-        <v>2.1887E-2</v>
-      </c>
-      <c r="G28" s="11">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0.716248</v>
-      </c>
-      <c r="J28" s="8">
-        <v>5.7460999999999998E-2</v>
-      </c>
-      <c r="K28" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.78054400000000002</v>
-      </c>
-      <c r="F29" s="11">
-        <v>2.4386999999999999E-2</v>
-      </c>
-      <c r="G29" s="11">
-        <v>8</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0.74170999999999998</v>
-      </c>
-      <c r="J29" s="11">
-        <v>4.3108E-2</v>
-      </c>
-      <c r="K29" s="29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="5"/>
-      <c r="D30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.76979200000000003</v>
-      </c>
-      <c r="F30" s="14">
-        <v>4.9439999999999996E-3</v>
-      </c>
-      <c r="G30" s="14">
-        <v>5</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="14">
+      <c r="H30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="32">
         <v>0.72452799999999995</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="32">
         <v>4.7985E-2</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
     <mergeCell ref="D5:K5"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D6:G6"/>
@@ -2234,11 +2333,6 @@
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
